--- a/public/data/disease_related.xlsx
+++ b/public/data/disease_related.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lib\dbEsslnc\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C81285D4-8D93-4142-ADE3-708DE99B9111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C225FAF-97DF-4AEE-AF99-F4EE1AC6D2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15842" uniqueCount="6953">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15842" uniqueCount="7210">
   <si>
     <t>UID</t>
   </si>
@@ -20873,14 +20873,785 @@
   </si>
   <si>
     <t>77633335</t>
-  </si>
-  <si>
-    <t>variants_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Annotation:Essential lncRNAs associated with fatal diseases.The 'variation_ids' column contains all mapped variation IDs, which can be queried in the ClinVar database.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lethal_phenotype_associated_variants_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENSG00000285530.1</t>
+  </si>
+  <si>
+    <t>ENSG00000284735.1</t>
+  </si>
+  <si>
+    <t>ENSG00000231437.3</t>
+  </si>
+  <si>
+    <t>ENSG00000278811.4</t>
+  </si>
+  <si>
+    <t>ENSG00000227217.1</t>
+  </si>
+  <si>
+    <t>ENSG00000273112.1</t>
+  </si>
+  <si>
+    <t>ENSG00000234741.8</t>
+  </si>
+  <si>
+    <t>ENSG00000229989.4</t>
+  </si>
+  <si>
+    <t>ENSG00000233410.1</t>
+  </si>
+  <si>
+    <t>ENSG00000229191.1</t>
+  </si>
+  <si>
+    <t>ENSG00000117242.7</t>
+  </si>
+  <si>
+    <t>ENSG00000232480.1</t>
+  </si>
+  <si>
+    <t>ENSG00000281453.1</t>
+  </si>
+  <si>
+    <t>ENSG00000236358.1</t>
+  </si>
+  <si>
+    <t>ENSG00000231663.1</t>
+  </si>
+  <si>
+    <t>ENSG00000236065.2</t>
+  </si>
+  <si>
+    <t>ENSG00000225762.1</t>
+  </si>
+  <si>
+    <t>ENSG00000237324.3</t>
+  </si>
+  <si>
+    <t>ENSG00000230427.1</t>
+  </si>
+  <si>
+    <t>ENSG00000285520.1</t>
+  </si>
+  <si>
+    <t>ENSG00000240291.1</t>
+  </si>
+  <si>
+    <t>ENSG00000235939.1</t>
+  </si>
+  <si>
+    <t>ENSG00000224251.6</t>
+  </si>
+  <si>
+    <t>ENSG00000236671.9</t>
+  </si>
+  <si>
+    <t>ENSG00000273360.1</t>
+  </si>
+  <si>
+    <t>ENSG00000180139.11</t>
+  </si>
+  <si>
+    <t>ENSG00000232110.8</t>
+  </si>
+  <si>
+    <t>ENSG00000247416.4</t>
+  </si>
+  <si>
+    <t>ENSG00000254467.2</t>
+  </si>
+  <si>
+    <t>ENSG00000254568.1</t>
+  </si>
+  <si>
+    <t>ENSG00000254943.1</t>
+  </si>
+  <si>
+    <t>ENSG00000260209.1</t>
+  </si>
+  <si>
+    <t>ENSG00000254905.1</t>
+  </si>
+  <si>
+    <t>ENSG00000269821.1</t>
+  </si>
+  <si>
+    <t>ENSG00000229414.2</t>
+  </si>
+  <si>
+    <t>ENSG00000255525.1</t>
+  </si>
+  <si>
+    <t>ENSG00000183242.11</t>
+  </si>
+  <si>
+    <t>ENSG00000247675.7</t>
+  </si>
+  <si>
+    <t>ENSG00000254641.1</t>
+  </si>
+  <si>
+    <t>ENSG00000254631.5</t>
+  </si>
+  <si>
+    <t>ENSG00000254928.1</t>
+  </si>
+  <si>
+    <t>ENSG00000257514.5</t>
+  </si>
+  <si>
+    <t>ENSG00000283052.1</t>
+  </si>
+  <si>
+    <t>ENSG00000241388.5</t>
+  </si>
+  <si>
+    <t>ENSG00000247373.3</t>
+  </si>
+  <si>
+    <t>ENSG00000255839.1</t>
+  </si>
+  <si>
+    <t>ENSG00000256615.1</t>
+  </si>
+  <si>
+    <t>ENSG00000278255.1</t>
+  </si>
+  <si>
+    <t>ENSG00000256721.1</t>
+  </si>
+  <si>
+    <t>ENSG00000285734.1</t>
+  </si>
+  <si>
+    <t>ENSG00000275197.1</t>
+  </si>
+  <si>
+    <t>ENSG00000256769.1</t>
+  </si>
+  <si>
+    <t>ENSG00000256271.1</t>
+  </si>
+  <si>
+    <t>ENSG00000256150.2</t>
+  </si>
+  <si>
+    <t>ENSG00000275854.1</t>
+  </si>
+  <si>
+    <t>ENSG00000257342.1</t>
+  </si>
+  <si>
+    <t>ENSG00000255850.2</t>
+  </si>
+  <si>
+    <t>ENSG00000255886.1</t>
+  </si>
+  <si>
+    <t>ENSG00000287618.1</t>
+  </si>
+  <si>
+    <t>ENSG00000255829.1</t>
+  </si>
+  <si>
+    <t>ENSG00000257167.2</t>
+  </si>
+  <si>
+    <t>ENSG00000287330.1</t>
+  </si>
+  <si>
+    <t>ENSG00000276740.1</t>
+  </si>
+  <si>
+    <t>ENSG00000235903.9</t>
+  </si>
+  <si>
+    <t>ENSG00000231473.3</t>
+  </si>
+  <si>
+    <t>ENSG00000231019.1</t>
+  </si>
+  <si>
+    <t>ENSG00000258908.1</t>
+  </si>
+  <si>
+    <t>ENSG00000258444.1</t>
+  </si>
+  <si>
+    <t>ENSG00000283098.2</t>
+  </si>
+  <si>
+    <t>ENSG00000257520.1</t>
+  </si>
+  <si>
+    <t>ENSG00000258824.2</t>
+  </si>
+  <si>
+    <t>ENSG00000259118.5</t>
+  </si>
+  <si>
+    <t>ENSG00000258623.1</t>
+  </si>
+  <si>
+    <t>ENSG00000258559.2</t>
+  </si>
+  <si>
+    <t>ENSG00000258876.1</t>
+  </si>
+  <si>
+    <t>ENSG00000284959.2</t>
+  </si>
+  <si>
+    <t>ENSG00000258424.1</t>
+  </si>
+  <si>
+    <t>ENSG00000259488.2</t>
+  </si>
+  <si>
+    <t>ENSG00000286947.1</t>
+  </si>
+  <si>
+    <t>ENSG00000261460.1</t>
+  </si>
+  <si>
+    <t>ENSG00000260339.1</t>
+  </si>
+  <si>
+    <t>ENSG00000261187.1</t>
+  </si>
+  <si>
+    <t>ENSG00000259650.1</t>
+  </si>
+  <si>
+    <t>ENSG00000261762.1</t>
+  </si>
+  <si>
+    <t>ENSG00000259462.3</t>
+  </si>
+  <si>
+    <t>ENSG00000287061.1</t>
+  </si>
+  <si>
+    <t>ENSG00000262151.1</t>
+  </si>
+  <si>
+    <t>ENSG00000262732.1</t>
+  </si>
+  <si>
+    <t>ENSG00000263335.1</t>
+  </si>
+  <si>
+    <t>ENSG00000261723.1</t>
+  </si>
+  <si>
+    <t>ENSG00000261416.1</t>
+  </si>
+  <si>
+    <t>ENSG00000261938.1</t>
+  </si>
+  <si>
+    <t>ENSG00000260798.1</t>
+  </si>
+  <si>
+    <t>ENSG00000259992.1</t>
+  </si>
+  <si>
+    <t>ENSG00000287106.1</t>
+  </si>
+  <si>
+    <t>ENSG00000268388.6</t>
+  </si>
+  <si>
+    <t>ENSG00000260944.1</t>
+  </si>
+  <si>
+    <t>ENSG00000278341.1</t>
+  </si>
+  <si>
+    <t>ENSG00000261546.1</t>
+  </si>
+  <si>
+    <t>ENSG00000267048.1</t>
+  </si>
+  <si>
+    <t>ENSG00000259006.1</t>
+  </si>
+  <si>
+    <t>ENSG00000264067.1</t>
+  </si>
+  <si>
+    <t>ENSG00000236088.10</t>
+  </si>
+  <si>
+    <t>ENSG00000264107.1</t>
+  </si>
+  <si>
+    <t>ENSG00000270871.1</t>
+  </si>
+  <si>
+    <t>ENSG00000270894.1</t>
+  </si>
+  <si>
+    <t>ENSG00000277688.1</t>
+  </si>
+  <si>
+    <t>ENSG00000267765.1</t>
+  </si>
+  <si>
+    <t>ENSG00000198496.12</t>
+  </si>
+  <si>
+    <t>ENSG00000230148.8</t>
+  </si>
+  <si>
+    <t>ENSG00000248714.7</t>
+  </si>
+  <si>
+    <t>ENSG00000250186.3</t>
+  </si>
+  <si>
+    <t>ENSG00000249406.3</t>
+  </si>
+  <si>
+    <t>ENSG00000287337.1</t>
+  </si>
+  <si>
+    <t>ENSG00000265148.6</t>
+  </si>
+  <si>
+    <t>ENSG00000267137.1</t>
+  </si>
+  <si>
+    <t>ENSG00000267009.6</t>
+  </si>
+  <si>
+    <t>ENSG00000263843.1</t>
+  </si>
+  <si>
+    <t>ENSG00000267543.1</t>
+  </si>
+  <si>
+    <t>ENSG00000178977.3</t>
+  </si>
+  <si>
+    <t>ENSG00000266824.1</t>
+  </si>
+  <si>
+    <t>ENSG00000226871.1</t>
+  </si>
+  <si>
+    <t>ENSG00000265751.1</t>
+  </si>
+  <si>
+    <t>ENSG00000266010.2</t>
+  </si>
+  <si>
+    <t>ENSG00000265752.3</t>
+  </si>
+  <si>
+    <t>ENSG00000227279.1</t>
+  </si>
+  <si>
+    <t>ENSG00000265888.2</t>
+  </si>
+  <si>
+    <t>ENSG00000266729.5</t>
+  </si>
+  <si>
+    <t>ENSG00000264859.6</t>
+  </si>
+  <si>
+    <t>ENSG00000260433.3</t>
+  </si>
+  <si>
+    <t>ENSG00000267476.1</t>
+  </si>
+  <si>
+    <t>ENSG00000266936.1</t>
+  </si>
+  <si>
+    <t>ENSG00000267082.1</t>
+  </si>
+  <si>
+    <t>ENSG00000280486.2</t>
+  </si>
+  <si>
+    <t>ENSG00000248015.7</t>
+  </si>
+  <si>
+    <t>ENSG00000268087.1</t>
+  </si>
+  <si>
+    <t>ENSG00000267727.1</t>
+  </si>
+  <si>
+    <t>ENSG00000269445.1</t>
+  </si>
+  <si>
+    <t>ENSG00000268055.1</t>
+  </si>
+  <si>
+    <t>ENSG00000267107.8</t>
+  </si>
+  <si>
+    <t>ENSG00000268987.1</t>
+  </si>
+  <si>
+    <t>ENSG00000267395.5</t>
+  </si>
+  <si>
+    <t>ENSG00000269292.1</t>
+  </si>
+  <si>
+    <t>ENSG00000273901.1</t>
+  </si>
+  <si>
+    <t>ENSG00000238273.3</t>
+  </si>
+  <si>
+    <t>ENSG00000237880.2</t>
+  </si>
+  <si>
+    <t>ENSG00000233718.8</t>
+  </si>
+  <si>
+    <t>ENSG00000232788.1</t>
+  </si>
+  <si>
+    <t>ENSG00000236449.2</t>
+  </si>
+  <si>
+    <t>ENSG00000237298.10</t>
+  </si>
+  <si>
+    <t>ENSG00000270277.1</t>
+  </si>
+  <si>
+    <t>ENSG00000271011.1</t>
+  </si>
+  <si>
+    <t>ENSG00000270574.1</t>
+  </si>
+  <si>
+    <t>ENSG00000271141.1</t>
+  </si>
+  <si>
+    <t>ENSG00000267784.1</t>
+  </si>
+  <si>
+    <t>ENSG00000273456.1</t>
+  </si>
+  <si>
+    <t>ENSG00000229267.3</t>
+  </si>
+  <si>
+    <t>ENSG00000225062.1</t>
+  </si>
+  <si>
+    <t>ENSG00000234638.1</t>
+  </si>
+  <si>
+    <t>ENSG00000235419.5</t>
+  </si>
+  <si>
+    <t>ENSG00000286963.1</t>
+  </si>
+  <si>
+    <t>ENSG00000233862.7</t>
+  </si>
+  <si>
+    <t>ENSG00000225234.1</t>
+  </si>
+  <si>
+    <t>ENSG00000272180.1</t>
+  </si>
+  <si>
+    <t>ENSG00000273063.1</t>
+  </si>
+  <si>
+    <t>ENSG00000228541.1</t>
+  </si>
+  <si>
+    <t>ENSG00000204685.7</t>
+  </si>
+  <si>
+    <t>ENSG00000230753.6</t>
+  </si>
+  <si>
+    <t>ENSG00000271984.1</t>
+  </si>
+  <si>
+    <t>ENSG00000180259.10</t>
+  </si>
+  <si>
+    <t>ENSG00000234883.6</t>
+  </si>
+  <si>
+    <t>ENSG00000225555.2</t>
+  </si>
+  <si>
+    <t>ENSG00000286153.1</t>
+  </si>
+  <si>
+    <t>ENSG00000230794.1</t>
+  </si>
+  <si>
+    <t>ENSG00000279080.1</t>
+  </si>
+  <si>
+    <t>ENSG00000232754.1</t>
+  </si>
+  <si>
+    <t>ENSG00000287086.1</t>
+  </si>
+  <si>
+    <t>ENSG00000239523.6</t>
+  </si>
+  <si>
+    <t>ENSG00000250174.5</t>
+  </si>
+  <si>
+    <t>ENSG00000244300.3</t>
+  </si>
+  <si>
+    <t>ENSG00000248724.6</t>
+  </si>
+  <si>
+    <t>ENSG00000228242.6</t>
+  </si>
+  <si>
+    <t>ENSG00000244327.1</t>
+  </si>
+  <si>
+    <t>ENSG00000286856.1</t>
+  </si>
+  <si>
+    <t>ENSG00000272721.5</t>
+  </si>
+  <si>
+    <t>ENSG00000228008.1</t>
+  </si>
+  <si>
+    <t>ENSG00000243295.2</t>
+  </si>
+  <si>
+    <t>ENSG00000242516.2</t>
+  </si>
+  <si>
+    <t>ENSG00000251586.1</t>
+  </si>
+  <si>
+    <t>ENSG00000249373.2</t>
+  </si>
+  <si>
+    <t>ENSG00000248356.1</t>
+  </si>
+  <si>
+    <t>ENSG00000249252.5</t>
+  </si>
+  <si>
+    <t>ENSG00000249309.1</t>
+  </si>
+  <si>
+    <t>ENSG00000249234.1</t>
+  </si>
+  <si>
+    <t>ENSG00000249609.1</t>
+  </si>
+  <si>
+    <t>ENSG00000250467.1</t>
+  </si>
+  <si>
+    <t>ENSG00000250930.5</t>
+  </si>
+  <si>
+    <t>ENSG00000287486.1</t>
+  </si>
+  <si>
+    <t>ENSG00000223442.1</t>
+  </si>
+  <si>
+    <t>ENSG00000245146.7</t>
+  </si>
+  <si>
+    <t>ENSG00000280029.4</t>
+  </si>
+  <si>
+    <t>ENSG00000251556.1</t>
+  </si>
+  <si>
+    <t>ENSG00000260581.1</t>
+  </si>
+  <si>
+    <t>ENSG00000254246.1</t>
+  </si>
+  <si>
+    <t>ENSG00000253519.1</t>
+  </si>
+  <si>
+    <t>ENSG00000251018.2</t>
+  </si>
+  <si>
+    <t>ENSG00000248925.1</t>
+  </si>
+  <si>
+    <t>ENSG00000248969.1</t>
+  </si>
+  <si>
+    <t>ENSG00000248664.1</t>
+  </si>
+  <si>
+    <t>ENSG00000249835.2</t>
+  </si>
+  <si>
+    <t>ENSG00000237234.7</t>
+  </si>
+  <si>
+    <t>ENSG00000235535.8</t>
+  </si>
+  <si>
+    <t>ENSG00000285691.2</t>
+  </si>
+  <si>
+    <t>ENSG00000285941.1</t>
+  </si>
+  <si>
+    <t>ENSG00000272462.3</t>
+  </si>
+  <si>
+    <t>ENSG00000224846.3</t>
+  </si>
+  <si>
+    <t>ENSG00000234753.5</t>
+  </si>
+  <si>
+    <t>ENSG00000261189.1</t>
+  </si>
+  <si>
+    <t>ENSG00000243243.5</t>
+  </si>
+  <si>
+    <t>ENSG00000235427.1</t>
+  </si>
+  <si>
+    <t>ENSG00000243220.1</t>
+  </si>
+  <si>
+    <t>ENSG00000232661.1</t>
+  </si>
+  <si>
+    <t>ENSG00000083622.8</t>
+  </si>
+  <si>
+    <t>ENSG00000224897.8</t>
+  </si>
+  <si>
+    <t>ENSG00000239911.2</t>
+  </si>
+  <si>
+    <t>ENSG00000237286.1</t>
+  </si>
+  <si>
+    <t>ENSG00000196295.12</t>
+  </si>
+  <si>
+    <t>ENSG00000285165.1</t>
+  </si>
+  <si>
+    <t>ENSG00000224057.1</t>
+  </si>
+  <si>
+    <t>ENSG00000214293.9</t>
+  </si>
+  <si>
+    <t>ENSG00000223770.5</t>
+  </si>
+  <si>
+    <t>ENSG00000240093.1</t>
+  </si>
+  <si>
+    <t>ENSG00000285090.1</t>
+  </si>
+  <si>
+    <t>ENSG00000286337.1</t>
+  </si>
+  <si>
+    <t>ENSG00000253420.1</t>
+  </si>
+  <si>
+    <t>ENSG00000246228.6</t>
+  </si>
+  <si>
+    <t>ENSG00000265393.1</t>
+  </si>
+  <si>
+    <t>ENSG00000245281.8</t>
+  </si>
+  <si>
+    <t>ENSG00000287959.1</t>
+  </si>
+  <si>
+    <t>ENSG00000254031.6</t>
+  </si>
+  <si>
+    <t>ENSG00000228317.2</t>
+  </si>
+  <si>
+    <t>ENSG00000173077.16</t>
+  </si>
+  <si>
+    <t>ENSG00000284977.2</t>
+  </si>
+  <si>
+    <t>ENSG00000225032.5</t>
+  </si>
+  <si>
+    <t>ENSG00000228395.2</t>
+  </si>
+  <si>
+    <t>ENSG00000230289.1</t>
+  </si>
+  <si>
+    <t>ENSG00000286502.1</t>
+  </si>
+  <si>
+    <t>ENSG00000227512.1</t>
+  </si>
+  <si>
+    <t>ENSG00000236921.1</t>
+  </si>
+  <si>
+    <t>ENSG00000224854.3</t>
+  </si>
+  <si>
+    <t>ENSG00000240498.9</t>
+  </si>
+  <si>
+    <t>ENSG00000250850.2</t>
+  </si>
+  <si>
+    <t>ENSG00000271155.1</t>
+  </si>
+  <si>
+    <t>ENSG00000271155.1;ENSG00000271659.1</t>
+  </si>
+  <si>
+    <t>ENSG00000267026.5</t>
+  </si>
+  <si>
+    <t>ENSG00000237461.2</t>
+  </si>
+  <si>
+    <t>ENSG00000232725.1</t>
   </si>
 </sst>
 </file>
@@ -21251,7 +22022,7 @@
   <dimension ref="A1:N1321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F3" sqref="F3:F1321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21261,7 +22032,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
-        <v>6952</v>
+        <v>6951</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -21299,7 +22070,7 @@
         <v>11</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>6951</v>
+        <v>6952</v>
       </c>
       <c r="N2" t="s">
         <v>1</v>
@@ -21360,7 +22131,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>6953</v>
       </c>
       <c r="G4" t="s">
         <v>16</v>
@@ -21565,7 +22336,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>6954</v>
       </c>
       <c r="G9" t="s">
         <v>16</v>
@@ -21606,7 +22377,7 @@
         <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>6955</v>
       </c>
       <c r="G10" t="s">
         <v>58</v>
@@ -22016,7 +22787,7 @@
         <v>110</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>6956</v>
       </c>
       <c r="G20" t="s">
         <v>111</v>
@@ -22057,7 +22828,7 @@
         <v>110</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>6956</v>
       </c>
       <c r="G21" t="s">
         <v>111</v>
@@ -22139,7 +22910,7 @@
         <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>6957</v>
       </c>
       <c r="G23" t="s">
         <v>16</v>
@@ -22303,7 +23074,7 @@
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>6958</v>
       </c>
       <c r="G27" t="s">
         <v>16</v>
@@ -22467,7 +23238,7 @@
         <v>168</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>6959</v>
       </c>
       <c r="G31" t="s">
         <v>169</v>
@@ -22795,7 +23566,7 @@
         <v>212</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>6960</v>
       </c>
       <c r="G39" t="s">
         <v>213</v>
@@ -22836,7 +23607,7 @@
         <v>220</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>6961</v>
       </c>
       <c r="G40" t="s">
         <v>221</v>
@@ -23000,7 +23771,7 @@
         <v>16</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>6962</v>
       </c>
       <c r="G44" t="s">
         <v>16</v>
@@ -23041,7 +23812,7 @@
         <v>16</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>6962</v>
       </c>
       <c r="G45" t="s">
         <v>16</v>
@@ -23328,7 +24099,7 @@
         <v>287</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
+        <v>6963</v>
       </c>
       <c r="G52" t="s">
         <v>288</v>
@@ -23369,7 +24140,7 @@
         <v>287</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
+        <v>6963</v>
       </c>
       <c r="G53" t="s">
         <v>288</v>
@@ -23574,7 +24345,7 @@
         <v>316</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
+        <v>6964</v>
       </c>
       <c r="G58" t="s">
         <v>317</v>
@@ -23615,7 +24386,7 @@
         <v>316</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
+        <v>6964</v>
       </c>
       <c r="G59" t="s">
         <v>317</v>
@@ -23697,7 +24468,7 @@
         <v>334</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
+        <v>6965</v>
       </c>
       <c r="G61" t="s">
         <v>335</v>
@@ -24025,7 +24796,7 @@
         <v>16</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
+        <v>6966</v>
       </c>
       <c r="G69" t="s">
         <v>16</v>
@@ -24066,7 +24837,7 @@
         <v>386</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
+        <v>6967</v>
       </c>
       <c r="G70" t="s">
         <v>387</v>
@@ -24517,7 +25288,7 @@
         <v>16</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
+        <v>6968</v>
       </c>
       <c r="G81" t="s">
         <v>16</v>
@@ -24558,7 +25329,7 @@
         <v>16</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
+        <v>6968</v>
       </c>
       <c r="G82" t="s">
         <v>16</v>
@@ -24763,7 +25534,7 @@
         <v>477</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
+        <v>6969</v>
       </c>
       <c r="G87" t="s">
         <v>478</v>
@@ -24804,7 +25575,7 @@
         <v>477</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
+        <v>6969</v>
       </c>
       <c r="G88" t="s">
         <v>478</v>
@@ -24886,7 +25657,7 @@
         <v>16</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
+        <v>6970</v>
       </c>
       <c r="G90" t="s">
         <v>16</v>
@@ -25173,7 +25944,7 @@
         <v>530</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
+        <v>6971</v>
       </c>
       <c r="G97" t="s">
         <v>531</v>
@@ -25214,7 +25985,7 @@
         <v>530</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
+        <v>6971</v>
       </c>
       <c r="G98" t="s">
         <v>531</v>
@@ -25911,7 +26682,7 @@
         <v>16</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
+        <v>6972</v>
       </c>
       <c r="G115" t="s">
         <v>16</v>
@@ -26116,7 +26887,7 @@
         <v>16</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
+        <v>6973</v>
       </c>
       <c r="G120" t="s">
         <v>16</v>
@@ -26157,7 +26928,7 @@
         <v>16</v>
       </c>
       <c r="F121" t="s">
-        <v>16</v>
+        <v>6973</v>
       </c>
       <c r="G121" t="s">
         <v>16</v>
@@ -26321,7 +27092,7 @@
         <v>16</v>
       </c>
       <c r="F125" t="s">
-        <v>16</v>
+        <v>6974</v>
       </c>
       <c r="G125" t="s">
         <v>16</v>
@@ -26362,7 +27133,7 @@
         <v>16</v>
       </c>
       <c r="F126" t="s">
-        <v>16</v>
+        <v>6974</v>
       </c>
       <c r="G126" t="s">
         <v>16</v>
@@ -26485,7 +27256,7 @@
         <v>16</v>
       </c>
       <c r="F129" t="s">
-        <v>16</v>
+        <v>6975</v>
       </c>
       <c r="G129" t="s">
         <v>16</v>
@@ -26526,7 +27297,7 @@
         <v>16</v>
       </c>
       <c r="F130" t="s">
-        <v>16</v>
+        <v>6975</v>
       </c>
       <c r="G130" t="s">
         <v>16</v>
@@ -26731,7 +27502,7 @@
         <v>721</v>
       </c>
       <c r="F135" t="s">
-        <v>16</v>
+        <v>6976</v>
       </c>
       <c r="G135" t="s">
         <v>722</v>
@@ -26772,7 +27543,7 @@
         <v>721</v>
       </c>
       <c r="F136" t="s">
-        <v>16</v>
+        <v>6976</v>
       </c>
       <c r="G136" t="s">
         <v>722</v>
@@ -26895,7 +27666,7 @@
         <v>16</v>
       </c>
       <c r="F139" t="s">
-        <v>16</v>
+        <v>6977</v>
       </c>
       <c r="G139" t="s">
         <v>16</v>
@@ -26936,7 +27707,7 @@
         <v>16</v>
       </c>
       <c r="F140" t="s">
-        <v>16</v>
+        <v>6977</v>
       </c>
       <c r="G140" t="s">
         <v>16</v>
@@ -27551,7 +28322,7 @@
         <v>828</v>
       </c>
       <c r="F155" t="s">
-        <v>16</v>
+        <v>6978</v>
       </c>
       <c r="G155" t="s">
         <v>829</v>
@@ -27592,7 +28363,7 @@
         <v>828</v>
       </c>
       <c r="F156" t="s">
-        <v>16</v>
+        <v>6978</v>
       </c>
       <c r="G156" t="s">
         <v>829</v>
@@ -27633,7 +28404,7 @@
         <v>16</v>
       </c>
       <c r="F157" t="s">
-        <v>16</v>
+        <v>6979</v>
       </c>
       <c r="G157" t="s">
         <v>16</v>
@@ -27674,7 +28445,7 @@
         <v>16</v>
       </c>
       <c r="F158" t="s">
-        <v>16</v>
+        <v>6979</v>
       </c>
       <c r="G158" t="s">
         <v>16</v>
@@ -28166,7 +28937,7 @@
         <v>16</v>
       </c>
       <c r="F170" t="s">
-        <v>16</v>
+        <v>6980</v>
       </c>
       <c r="G170" t="s">
         <v>16</v>
@@ -28207,7 +28978,7 @@
         <v>16</v>
       </c>
       <c r="F171" t="s">
-        <v>16</v>
+        <v>6980</v>
       </c>
       <c r="G171" t="s">
         <v>16</v>
@@ -28617,7 +29388,7 @@
         <v>16</v>
       </c>
       <c r="F181" t="s">
-        <v>16</v>
+        <v>6981</v>
       </c>
       <c r="G181" t="s">
         <v>16</v>
@@ -28658,7 +29429,7 @@
         <v>16</v>
       </c>
       <c r="F182" t="s">
-        <v>16</v>
+        <v>6982</v>
       </c>
       <c r="G182" t="s">
         <v>16</v>
@@ -28740,7 +29511,7 @@
         <v>16</v>
       </c>
       <c r="F184" t="s">
-        <v>16</v>
+        <v>6983</v>
       </c>
       <c r="G184" t="s">
         <v>16</v>
@@ -28781,7 +29552,7 @@
         <v>16</v>
       </c>
       <c r="F185" t="s">
-        <v>16</v>
+        <v>6983</v>
       </c>
       <c r="G185" t="s">
         <v>16</v>
@@ -28863,7 +29634,7 @@
         <v>16</v>
       </c>
       <c r="F187" t="s">
-        <v>16</v>
+        <v>6984</v>
       </c>
       <c r="G187" t="s">
         <v>16</v>
@@ -28904,7 +29675,7 @@
         <v>16</v>
       </c>
       <c r="F188" t="s">
-        <v>16</v>
+        <v>6984</v>
       </c>
       <c r="G188" t="s">
         <v>16</v>
@@ -28945,7 +29716,7 @@
         <v>16</v>
       </c>
       <c r="F189" t="s">
-        <v>16</v>
+        <v>6985</v>
       </c>
       <c r="G189" t="s">
         <v>998</v>
@@ -29068,7 +29839,7 @@
         <v>1015</v>
       </c>
       <c r="F192" t="s">
-        <v>16</v>
+        <v>6986</v>
       </c>
       <c r="G192" t="s">
         <v>1016</v>
@@ -29150,7 +29921,7 @@
         <v>1015</v>
       </c>
       <c r="F194" t="s">
-        <v>16</v>
+        <v>6986</v>
       </c>
       <c r="G194" t="s">
         <v>1016</v>
@@ -29191,7 +29962,7 @@
         <v>1031</v>
       </c>
       <c r="F195" t="s">
-        <v>16</v>
+        <v>6987</v>
       </c>
       <c r="G195" t="s">
         <v>1032</v>
@@ -29232,7 +30003,7 @@
         <v>1031</v>
       </c>
       <c r="F196" t="s">
-        <v>16</v>
+        <v>6987</v>
       </c>
       <c r="G196" t="s">
         <v>1032</v>
@@ -29314,7 +30085,7 @@
         <v>16</v>
       </c>
       <c r="F198" t="s">
-        <v>16</v>
+        <v>6988</v>
       </c>
       <c r="G198" t="s">
         <v>16</v>
@@ -29437,7 +30208,7 @@
         <v>1063</v>
       </c>
       <c r="F201" t="s">
-        <v>16</v>
+        <v>6989</v>
       </c>
       <c r="G201" t="s">
         <v>1064</v>
@@ -29478,7 +30249,7 @@
         <v>1063</v>
       </c>
       <c r="F202" t="s">
-        <v>16</v>
+        <v>6989</v>
       </c>
       <c r="G202" t="s">
         <v>1064</v>
@@ -29683,7 +30454,7 @@
         <v>1093</v>
       </c>
       <c r="F207" t="s">
-        <v>16</v>
+        <v>6990</v>
       </c>
       <c r="G207" t="s">
         <v>1094</v>
@@ -29724,7 +30495,7 @@
         <v>1093</v>
       </c>
       <c r="F208" t="s">
-        <v>16</v>
+        <v>6990</v>
       </c>
       <c r="G208" t="s">
         <v>1094</v>
@@ -30052,7 +30823,7 @@
         <v>16</v>
       </c>
       <c r="F216" t="s">
-        <v>16</v>
+        <v>6991</v>
       </c>
       <c r="G216" t="s">
         <v>16</v>
@@ -30298,7 +31069,7 @@
         <v>16</v>
       </c>
       <c r="F222" t="s">
-        <v>16</v>
+        <v>6992</v>
       </c>
       <c r="G222" t="s">
         <v>16</v>
@@ -30339,7 +31110,7 @@
         <v>16</v>
       </c>
       <c r="F223" t="s">
-        <v>16</v>
+        <v>6992</v>
       </c>
       <c r="G223" t="s">
         <v>16</v>
@@ -30421,7 +31192,7 @@
         <v>16</v>
       </c>
       <c r="F225" t="s">
-        <v>16</v>
+        <v>6993</v>
       </c>
       <c r="G225" t="s">
         <v>16</v>
@@ -30462,7 +31233,7 @@
         <v>16</v>
       </c>
       <c r="F226" t="s">
-        <v>16</v>
+        <v>6993</v>
       </c>
       <c r="G226" t="s">
         <v>16</v>
@@ -30790,7 +31561,7 @@
         <v>16</v>
       </c>
       <c r="F234" t="s">
-        <v>16</v>
+        <v>6994</v>
       </c>
       <c r="G234" t="s">
         <v>16</v>
@@ -30831,7 +31602,7 @@
         <v>16</v>
       </c>
       <c r="F235" t="s">
-        <v>16</v>
+        <v>6994</v>
       </c>
       <c r="G235" t="s">
         <v>16</v>
@@ -30872,7 +31643,7 @@
         <v>1244</v>
       </c>
       <c r="F236" t="s">
-        <v>16</v>
+        <v>6995</v>
       </c>
       <c r="G236" t="s">
         <v>1245</v>
@@ -31405,7 +32176,7 @@
         <v>1314</v>
       </c>
       <c r="F249" t="s">
-        <v>16</v>
+        <v>6996</v>
       </c>
       <c r="G249" t="s">
         <v>1315</v>
@@ -31446,7 +32217,7 @@
         <v>1314</v>
       </c>
       <c r="F250" t="s">
-        <v>16</v>
+        <v>6996</v>
       </c>
       <c r="G250" t="s">
         <v>1315</v>
@@ -31569,7 +32340,7 @@
         <v>1336</v>
       </c>
       <c r="F253" t="s">
-        <v>16</v>
+        <v>6997</v>
       </c>
       <c r="G253" t="s">
         <v>1337</v>
@@ -31610,7 +32381,7 @@
         <v>16</v>
       </c>
       <c r="F254" t="s">
-        <v>16</v>
+        <v>6998</v>
       </c>
       <c r="G254" t="s">
         <v>16</v>
@@ -31692,7 +32463,7 @@
         <v>16</v>
       </c>
       <c r="F256" t="s">
-        <v>16</v>
+        <v>6999</v>
       </c>
       <c r="G256" t="s">
         <v>16</v>
@@ -31733,7 +32504,7 @@
         <v>16</v>
       </c>
       <c r="F257" t="s">
-        <v>16</v>
+        <v>6999</v>
       </c>
       <c r="G257" t="s">
         <v>16</v>
@@ -31815,7 +32586,7 @@
         <v>1368</v>
       </c>
       <c r="F259" t="s">
-        <v>16</v>
+        <v>7000</v>
       </c>
       <c r="G259" t="s">
         <v>1369</v>
@@ -31897,7 +32668,7 @@
         <v>1381</v>
       </c>
       <c r="F261" t="s">
-        <v>16</v>
+        <v>7001</v>
       </c>
       <c r="G261" t="s">
         <v>1382</v>
@@ -31938,7 +32709,7 @@
         <v>1381</v>
       </c>
       <c r="F262" t="s">
-        <v>16</v>
+        <v>7001</v>
       </c>
       <c r="G262" t="s">
         <v>1382</v>
@@ -31979,7 +32750,7 @@
         <v>16</v>
       </c>
       <c r="F263" t="s">
-        <v>16</v>
+        <v>7002</v>
       </c>
       <c r="G263" t="s">
         <v>16</v>
@@ -32102,7 +32873,7 @@
         <v>16</v>
       </c>
       <c r="F266" t="s">
-        <v>16</v>
+        <v>7003</v>
       </c>
       <c r="G266" t="s">
         <v>16</v>
@@ -32143,7 +32914,7 @@
         <v>1414</v>
       </c>
       <c r="F267" t="s">
-        <v>16</v>
+        <v>7004</v>
       </c>
       <c r="G267" t="s">
         <v>1415</v>
@@ -32225,7 +32996,7 @@
         <v>1428</v>
       </c>
       <c r="F269" t="s">
-        <v>16</v>
+        <v>7005</v>
       </c>
       <c r="G269" t="s">
         <v>1429</v>
@@ -32266,7 +33037,7 @@
         <v>1428</v>
       </c>
       <c r="F270" t="s">
-        <v>16</v>
+        <v>7005</v>
       </c>
       <c r="G270" t="s">
         <v>1429</v>
@@ -32348,7 +33119,7 @@
         <v>1445</v>
       </c>
       <c r="F272" t="s">
-        <v>16</v>
+        <v>7006</v>
       </c>
       <c r="G272" t="s">
         <v>1446</v>
@@ -32471,7 +33242,7 @@
         <v>16</v>
       </c>
       <c r="F275" t="s">
-        <v>16</v>
+        <v>7007</v>
       </c>
       <c r="G275" t="s">
         <v>16</v>
@@ -32799,7 +33570,7 @@
         <v>16</v>
       </c>
       <c r="F283" t="s">
-        <v>16</v>
+        <v>7008</v>
       </c>
       <c r="G283" t="s">
         <v>16</v>
@@ -33004,7 +33775,7 @@
         <v>1530</v>
       </c>
       <c r="F288" t="s">
-        <v>16</v>
+        <v>7009</v>
       </c>
       <c r="G288" t="s">
         <v>1531</v>
@@ -33045,7 +33816,7 @@
         <v>1530</v>
       </c>
       <c r="F289" t="s">
-        <v>16</v>
+        <v>7009</v>
       </c>
       <c r="G289" t="s">
         <v>1531</v>
@@ -33127,7 +33898,7 @@
         <v>16</v>
       </c>
       <c r="F291" t="s">
-        <v>16</v>
+        <v>7010</v>
       </c>
       <c r="G291" t="s">
         <v>16</v>
@@ -33168,7 +33939,7 @@
         <v>16</v>
       </c>
       <c r="F292" t="s">
-        <v>16</v>
+        <v>7010</v>
       </c>
       <c r="G292" t="s">
         <v>16</v>
@@ -33209,7 +33980,7 @@
         <v>16</v>
       </c>
       <c r="F293" t="s">
-        <v>16</v>
+        <v>7011</v>
       </c>
       <c r="G293" t="s">
         <v>16</v>
@@ -33373,7 +34144,7 @@
         <v>16</v>
       </c>
       <c r="F297" t="s">
-        <v>16</v>
+        <v>7012</v>
       </c>
       <c r="G297" t="s">
         <v>16</v>
@@ -33660,7 +34431,7 @@
         <v>1610</v>
       </c>
       <c r="F304" t="s">
-        <v>16</v>
+        <v>7013</v>
       </c>
       <c r="G304" t="s">
         <v>1611</v>
@@ -33783,7 +34554,7 @@
         <v>16</v>
       </c>
       <c r="F307" t="s">
-        <v>16</v>
+        <v>7014</v>
       </c>
       <c r="G307" t="s">
         <v>16</v>
@@ -33824,7 +34595,7 @@
         <v>16</v>
       </c>
       <c r="F308" t="s">
-        <v>16</v>
+        <v>7014</v>
       </c>
       <c r="G308" t="s">
         <v>16</v>
@@ -33947,7 +34718,7 @@
         <v>16</v>
       </c>
       <c r="F311" t="s">
-        <v>16</v>
+        <v>7015</v>
       </c>
       <c r="G311" t="s">
         <v>16</v>
@@ -34521,7 +35292,7 @@
         <v>1721</v>
       </c>
       <c r="F325" t="s">
-        <v>16</v>
+        <v>7016</v>
       </c>
       <c r="G325" t="s">
         <v>1722</v>
@@ -34562,7 +35333,7 @@
         <v>1729</v>
       </c>
       <c r="F326" t="s">
-        <v>16</v>
+        <v>7017</v>
       </c>
       <c r="G326" t="s">
         <v>1730</v>
@@ -34603,7 +35374,7 @@
         <v>1729</v>
       </c>
       <c r="F327" t="s">
-        <v>16</v>
+        <v>7017</v>
       </c>
       <c r="G327" t="s">
         <v>1730</v>
@@ -34849,7 +35620,7 @@
         <v>1764</v>
       </c>
       <c r="F333" t="s">
-        <v>16</v>
+        <v>7018</v>
       </c>
       <c r="G333" t="s">
         <v>1765</v>
@@ -34972,7 +35743,7 @@
         <v>16</v>
       </c>
       <c r="F336" t="s">
-        <v>16</v>
+        <v>7019</v>
       </c>
       <c r="G336" t="s">
         <v>16</v>
@@ -35136,7 +35907,7 @@
         <v>1801</v>
       </c>
       <c r="F340" t="s">
-        <v>16</v>
+        <v>7020</v>
       </c>
       <c r="G340" t="s">
         <v>1802</v>
@@ -35177,7 +35948,7 @@
         <v>1801</v>
       </c>
       <c r="F341" t="s">
-        <v>16</v>
+        <v>7020</v>
       </c>
       <c r="G341" t="s">
         <v>1802</v>
@@ -35423,7 +36194,7 @@
         <v>16</v>
       </c>
       <c r="F347" t="s">
-        <v>16</v>
+        <v>7021</v>
       </c>
       <c r="G347" t="s">
         <v>16</v>
@@ -35505,7 +36276,7 @@
         <v>16</v>
       </c>
       <c r="F349" t="s">
-        <v>16</v>
+        <v>7022</v>
       </c>
       <c r="G349" t="s">
         <v>16</v>
@@ -35628,7 +36399,7 @@
         <v>16</v>
       </c>
       <c r="F352" t="s">
-        <v>16</v>
+        <v>7023</v>
       </c>
       <c r="G352" t="s">
         <v>16</v>
@@ -35669,7 +36440,7 @@
         <v>16</v>
       </c>
       <c r="F353" t="s">
-        <v>16</v>
+        <v>7024</v>
       </c>
       <c r="G353" t="s">
         <v>16</v>
@@ -35710,7 +36481,7 @@
         <v>16</v>
       </c>
       <c r="F354" t="s">
-        <v>16</v>
+        <v>7024</v>
       </c>
       <c r="G354" t="s">
         <v>16</v>
@@ -35915,7 +36686,7 @@
         <v>16</v>
       </c>
       <c r="F359" t="s">
-        <v>16</v>
+        <v>7025</v>
       </c>
       <c r="G359" t="s">
         <v>16</v>
@@ -35956,7 +36727,7 @@
         <v>16</v>
       </c>
       <c r="F360" t="s">
-        <v>16</v>
+        <v>7026</v>
       </c>
       <c r="G360" t="s">
         <v>16</v>
@@ -36284,7 +37055,7 @@
         <v>1950</v>
       </c>
       <c r="F368" t="s">
-        <v>16</v>
+        <v>7027</v>
       </c>
       <c r="G368" t="s">
         <v>1951</v>
@@ -36407,7 +37178,7 @@
         <v>16</v>
       </c>
       <c r="F371" t="s">
-        <v>16</v>
+        <v>7028</v>
       </c>
       <c r="G371" t="s">
         <v>16</v>
@@ -36448,7 +37219,7 @@
         <v>16</v>
       </c>
       <c r="F372" t="s">
-        <v>16</v>
+        <v>7028</v>
       </c>
       <c r="G372" t="s">
         <v>16</v>
@@ -36530,7 +37301,7 @@
         <v>16</v>
       </c>
       <c r="F374" t="s">
-        <v>16</v>
+        <v>7029</v>
       </c>
       <c r="G374" t="s">
         <v>16</v>
@@ -37227,7 +37998,7 @@
         <v>16</v>
       </c>
       <c r="F391" t="s">
-        <v>16</v>
+        <v>7030</v>
       </c>
       <c r="G391" t="s">
         <v>2069</v>
@@ -37268,7 +38039,7 @@
         <v>16</v>
       </c>
       <c r="F392" t="s">
-        <v>16</v>
+        <v>7030</v>
       </c>
       <c r="G392" t="s">
         <v>2069</v>
@@ -37391,7 +38162,7 @@
         <v>16</v>
       </c>
       <c r="F395" t="s">
-        <v>16</v>
+        <v>7031</v>
       </c>
       <c r="G395" t="s">
         <v>16</v>
@@ -37637,7 +38408,7 @@
         <v>16</v>
       </c>
       <c r="F401" t="s">
-        <v>16</v>
+        <v>7032</v>
       </c>
       <c r="G401" t="s">
         <v>16</v>
@@ -37678,7 +38449,7 @@
         <v>16</v>
       </c>
       <c r="F402" t="s">
-        <v>16</v>
+        <v>7032</v>
       </c>
       <c r="G402" t="s">
         <v>16</v>
@@ -37760,7 +38531,7 @@
         <v>2134</v>
       </c>
       <c r="F404" t="s">
-        <v>16</v>
+        <v>7033</v>
       </c>
       <c r="G404" t="s">
         <v>2135</v>
@@ -37842,7 +38613,7 @@
         <v>2146</v>
       </c>
       <c r="F406" t="s">
-        <v>16</v>
+        <v>7034</v>
       </c>
       <c r="G406" t="s">
         <v>2147</v>
@@ -37883,7 +38654,7 @@
         <v>2146</v>
       </c>
       <c r="F407" t="s">
-        <v>16</v>
+        <v>7034</v>
       </c>
       <c r="G407" t="s">
         <v>2147</v>
@@ -37924,7 +38695,7 @@
         <v>16</v>
       </c>
       <c r="F408" t="s">
-        <v>16</v>
+        <v>7035</v>
       </c>
       <c r="G408" t="s">
         <v>16</v>
@@ -38006,7 +38777,7 @@
         <v>16</v>
       </c>
       <c r="F410" t="s">
-        <v>16</v>
+        <v>7036</v>
       </c>
       <c r="G410" t="s">
         <v>16</v>
@@ -38047,7 +38818,7 @@
         <v>2174</v>
       </c>
       <c r="F411" t="s">
-        <v>16</v>
+        <v>7037</v>
       </c>
       <c r="G411" t="s">
         <v>2175</v>
@@ -38088,7 +38859,7 @@
         <v>2174</v>
       </c>
       <c r="F412" t="s">
-        <v>16</v>
+        <v>7037</v>
       </c>
       <c r="G412" t="s">
         <v>2175</v>
@@ -38334,7 +39105,7 @@
         <v>16</v>
       </c>
       <c r="F418" t="s">
-        <v>16</v>
+        <v>7038</v>
       </c>
       <c r="G418" t="s">
         <v>16</v>
@@ -38375,7 +39146,7 @@
         <v>16</v>
       </c>
       <c r="F419" t="s">
-        <v>16</v>
+        <v>7039</v>
       </c>
       <c r="G419" t="s">
         <v>16</v>
@@ -38580,7 +39351,7 @@
         <v>16</v>
       </c>
       <c r="F424" t="s">
-        <v>16</v>
+        <v>7040</v>
       </c>
       <c r="G424" t="s">
         <v>16</v>
@@ -38908,7 +39679,7 @@
         <v>16</v>
       </c>
       <c r="F432" t="s">
-        <v>16</v>
+        <v>7041</v>
       </c>
       <c r="G432" t="s">
         <v>16</v>
@@ -38949,7 +39720,7 @@
         <v>16</v>
       </c>
       <c r="F433" t="s">
-        <v>16</v>
+        <v>7041</v>
       </c>
       <c r="G433" t="s">
         <v>16</v>
@@ -39277,7 +40048,7 @@
         <v>16</v>
       </c>
       <c r="F441" t="s">
-        <v>16</v>
+        <v>7042</v>
       </c>
       <c r="G441" t="s">
         <v>16</v>
@@ -39441,7 +40212,7 @@
         <v>16</v>
       </c>
       <c r="F445" t="s">
-        <v>16</v>
+        <v>7043</v>
       </c>
       <c r="G445" t="s">
         <v>2353</v>
@@ -39482,7 +40253,7 @@
         <v>16</v>
       </c>
       <c r="F446" t="s">
-        <v>16</v>
+        <v>7044</v>
       </c>
       <c r="G446" t="s">
         <v>16</v>
@@ -39523,7 +40294,7 @@
         <v>16</v>
       </c>
       <c r="F447" t="s">
-        <v>16</v>
+        <v>7044</v>
       </c>
       <c r="G447" t="s">
         <v>16</v>
@@ -39974,7 +40745,7 @@
         <v>16</v>
       </c>
       <c r="F458" t="s">
-        <v>16</v>
+        <v>7045</v>
       </c>
       <c r="G458" t="s">
         <v>16</v>
@@ -40015,7 +40786,7 @@
         <v>16</v>
       </c>
       <c r="F459" t="s">
-        <v>16</v>
+        <v>7045</v>
       </c>
       <c r="G459" t="s">
         <v>16</v>
@@ -40179,7 +40950,7 @@
         <v>16</v>
       </c>
       <c r="F463" t="s">
-        <v>16</v>
+        <v>7046</v>
       </c>
       <c r="G463" t="s">
         <v>16</v>
@@ -40261,7 +41032,7 @@
         <v>16</v>
       </c>
       <c r="F465" t="s">
-        <v>16</v>
+        <v>7047</v>
       </c>
       <c r="G465" t="s">
         <v>16</v>
@@ -40548,7 +41319,7 @@
         <v>2487</v>
       </c>
       <c r="F472" t="s">
-        <v>16</v>
+        <v>7048</v>
       </c>
       <c r="G472" t="s">
         <v>2488</v>
@@ -40589,7 +41360,7 @@
         <v>2495</v>
       </c>
       <c r="F473" t="s">
-        <v>16</v>
+        <v>7049</v>
       </c>
       <c r="G473" t="s">
         <v>2496</v>
@@ -40630,7 +41401,7 @@
         <v>16</v>
       </c>
       <c r="F474" t="s">
-        <v>16</v>
+        <v>7050</v>
       </c>
       <c r="G474" t="s">
         <v>16</v>
@@ -40794,7 +41565,7 @@
         <v>16</v>
       </c>
       <c r="F478" t="s">
-        <v>16</v>
+        <v>7051</v>
       </c>
       <c r="G478" t="s">
         <v>16</v>
@@ -40958,7 +41729,7 @@
         <v>16</v>
       </c>
       <c r="F482" t="s">
-        <v>16</v>
+        <v>7052</v>
       </c>
       <c r="G482" t="s">
         <v>16</v>
@@ -41040,7 +41811,7 @@
         <v>16</v>
       </c>
       <c r="F484" t="s">
-        <v>16</v>
+        <v>7053</v>
       </c>
       <c r="G484" t="s">
         <v>16</v>
@@ -41081,7 +41852,7 @@
         <v>2559</v>
       </c>
       <c r="F485" t="s">
-        <v>16</v>
+        <v>7054</v>
       </c>
       <c r="G485" t="s">
         <v>2560</v>
@@ -41163,7 +41934,7 @@
         <v>2573</v>
       </c>
       <c r="F487" t="s">
-        <v>16</v>
+        <v>7055</v>
       </c>
       <c r="G487" t="s">
         <v>2574</v>
@@ -41204,7 +41975,7 @@
         <v>2573</v>
       </c>
       <c r="F488" t="s">
-        <v>16</v>
+        <v>7055</v>
       </c>
       <c r="G488" t="s">
         <v>2574</v>
@@ -41450,7 +42221,7 @@
         <v>16</v>
       </c>
       <c r="F494" t="s">
-        <v>16</v>
+        <v>7056</v>
       </c>
       <c r="G494" t="s">
         <v>2612</v>
@@ -41491,7 +42262,7 @@
         <v>16</v>
       </c>
       <c r="F495" t="s">
-        <v>16</v>
+        <v>7056</v>
       </c>
       <c r="G495" t="s">
         <v>2612</v>
@@ -41983,7 +42754,7 @@
         <v>16</v>
       </c>
       <c r="F507" t="s">
-        <v>16</v>
+        <v>7057</v>
       </c>
       <c r="G507" t="s">
         <v>16</v>
@@ -42024,7 +42795,7 @@
         <v>16</v>
       </c>
       <c r="F508" t="s">
-        <v>16</v>
+        <v>7057</v>
       </c>
       <c r="G508" t="s">
         <v>16</v>
@@ -42106,7 +42877,7 @@
         <v>16</v>
       </c>
       <c r="F510" t="s">
-        <v>16</v>
+        <v>7058</v>
       </c>
       <c r="G510" t="s">
         <v>16</v>
@@ -42188,7 +42959,7 @@
         <v>16</v>
       </c>
       <c r="F512" t="s">
-        <v>16</v>
+        <v>7059</v>
       </c>
       <c r="G512" t="s">
         <v>16</v>
@@ -42229,7 +43000,7 @@
         <v>16</v>
       </c>
       <c r="F513" t="s">
-        <v>16</v>
+        <v>7059</v>
       </c>
       <c r="G513" t="s">
         <v>16</v>
@@ -42885,7 +43656,7 @@
         <v>16</v>
       </c>
       <c r="F529" t="s">
-        <v>16</v>
+        <v>7060</v>
       </c>
       <c r="G529" t="s">
         <v>16</v>
@@ -43172,7 +43943,7 @@
         <v>2826</v>
       </c>
       <c r="F536" t="s">
-        <v>16</v>
+        <v>7061</v>
       </c>
       <c r="G536" t="s">
         <v>2827</v>
@@ -43213,7 +43984,7 @@
         <v>2826</v>
       </c>
       <c r="F537" t="s">
-        <v>16</v>
+        <v>7061</v>
       </c>
       <c r="G537" t="s">
         <v>2827</v>
@@ -43254,7 +44025,7 @@
         <v>2838</v>
       </c>
       <c r="F538" t="s">
-        <v>16</v>
+        <v>7062</v>
       </c>
       <c r="G538" t="s">
         <v>2839</v>
@@ -43295,7 +44066,7 @@
         <v>2838</v>
       </c>
       <c r="F539" t="s">
-        <v>16</v>
+        <v>7062</v>
       </c>
       <c r="G539" t="s">
         <v>2839</v>
@@ -43377,7 +44148,7 @@
         <v>16</v>
       </c>
       <c r="F541" t="s">
-        <v>16</v>
+        <v>7063</v>
       </c>
       <c r="G541" t="s">
         <v>2855</v>
@@ -43418,7 +44189,7 @@
         <v>16</v>
       </c>
       <c r="F542" t="s">
-        <v>16</v>
+        <v>7063</v>
       </c>
       <c r="G542" t="s">
         <v>2855</v>
@@ -43459,7 +44230,7 @@
         <v>16</v>
       </c>
       <c r="F543" t="s">
-        <v>16</v>
+        <v>7064</v>
       </c>
       <c r="G543" t="s">
         <v>16</v>
@@ -43500,7 +44271,7 @@
         <v>16</v>
       </c>
       <c r="F544" t="s">
-        <v>16</v>
+        <v>7064</v>
       </c>
       <c r="G544" t="s">
         <v>16</v>
@@ -43746,7 +44517,7 @@
         <v>16</v>
       </c>
       <c r="F550" t="s">
-        <v>16</v>
+        <v>7065</v>
       </c>
       <c r="G550" t="s">
         <v>16</v>
@@ -43787,7 +44558,7 @@
         <v>16</v>
       </c>
       <c r="F551" t="s">
-        <v>16</v>
+        <v>7065</v>
       </c>
       <c r="G551" t="s">
         <v>16</v>
@@ -43869,7 +44640,7 @@
         <v>16</v>
       </c>
       <c r="F553" t="s">
-        <v>16</v>
+        <v>7066</v>
       </c>
       <c r="G553" t="s">
         <v>16</v>
@@ -43910,7 +44681,7 @@
         <v>16</v>
       </c>
       <c r="F554" t="s">
-        <v>16</v>
+        <v>7066</v>
       </c>
       <c r="G554" t="s">
         <v>16</v>
@@ -43951,7 +44722,7 @@
         <v>2918</v>
       </c>
       <c r="F555" t="s">
-        <v>16</v>
+        <v>7067</v>
       </c>
       <c r="G555" t="s">
         <v>2919</v>
@@ -43992,7 +44763,7 @@
         <v>2918</v>
       </c>
       <c r="F556" t="s">
-        <v>16</v>
+        <v>7067</v>
       </c>
       <c r="G556" t="s">
         <v>2919</v>
@@ -44156,7 +44927,7 @@
         <v>16</v>
       </c>
       <c r="F560" t="s">
-        <v>16</v>
+        <v>7068</v>
       </c>
       <c r="G560" t="s">
         <v>16</v>
@@ -44361,7 +45132,7 @@
         <v>16</v>
       </c>
       <c r="F565" t="s">
-        <v>16</v>
+        <v>7069</v>
       </c>
       <c r="G565" t="s">
         <v>16</v>
@@ -44525,7 +45296,7 @@
         <v>16</v>
       </c>
       <c r="F569" t="s">
-        <v>16</v>
+        <v>7070</v>
       </c>
       <c r="G569" t="s">
         <v>2994</v>
@@ -44853,7 +45624,7 @@
         <v>3037</v>
       </c>
       <c r="F577" t="s">
-        <v>16</v>
+        <v>7071</v>
       </c>
       <c r="G577" t="s">
         <v>3038</v>
@@ -44894,7 +45665,7 @@
         <v>3037</v>
       </c>
       <c r="F578" t="s">
-        <v>16</v>
+        <v>7071</v>
       </c>
       <c r="G578" t="s">
         <v>3038</v>
@@ -45181,7 +45952,7 @@
         <v>3075</v>
       </c>
       <c r="F585" t="s">
-        <v>16</v>
+        <v>7072</v>
       </c>
       <c r="G585" t="s">
         <v>3076</v>
@@ -45222,7 +45993,7 @@
         <v>16</v>
       </c>
       <c r="F586" t="s">
-        <v>16</v>
+        <v>7073</v>
       </c>
       <c r="G586" t="s">
         <v>16</v>
@@ -45386,7 +46157,7 @@
         <v>16</v>
       </c>
       <c r="F590" t="s">
-        <v>16</v>
+        <v>7074</v>
       </c>
       <c r="G590" t="s">
         <v>16</v>
@@ -45468,7 +46239,7 @@
         <v>16</v>
       </c>
       <c r="F592" t="s">
-        <v>16</v>
+        <v>7075</v>
       </c>
       <c r="G592" t="s">
         <v>16</v>
@@ -45509,7 +46280,7 @@
         <v>16</v>
       </c>
       <c r="F593" t="s">
-        <v>16</v>
+        <v>7075</v>
       </c>
       <c r="G593" t="s">
         <v>16</v>
@@ -45591,7 +46362,7 @@
         <v>3128</v>
       </c>
       <c r="F595" t="s">
-        <v>16</v>
+        <v>7076</v>
       </c>
       <c r="G595" t="s">
         <v>3129</v>
@@ -45878,7 +46649,7 @@
         <v>16</v>
       </c>
       <c r="F602" t="s">
-        <v>16</v>
+        <v>7077</v>
       </c>
       <c r="G602" t="s">
         <v>3165</v>
@@ -45919,7 +46690,7 @@
         <v>16</v>
       </c>
       <c r="F603" t="s">
-        <v>16</v>
+        <v>7078</v>
       </c>
       <c r="G603" t="s">
         <v>16</v>
@@ -45960,7 +46731,7 @@
         <v>16</v>
       </c>
       <c r="F604" t="s">
-        <v>16</v>
+        <v>7078</v>
       </c>
       <c r="G604" t="s">
         <v>16</v>
@@ -46124,7 +46895,7 @@
         <v>3197</v>
       </c>
       <c r="F608" t="s">
-        <v>16</v>
+        <v>7079</v>
       </c>
       <c r="G608" t="s">
         <v>3198</v>
@@ -46165,7 +46936,7 @@
         <v>3197</v>
       </c>
       <c r="F609" t="s">
-        <v>16</v>
+        <v>7079</v>
       </c>
       <c r="G609" t="s">
         <v>3198</v>
@@ -46247,7 +47018,7 @@
         <v>3213</v>
       </c>
       <c r="F611" t="s">
-        <v>16</v>
+        <v>7080</v>
       </c>
       <c r="G611" t="s">
         <v>3214</v>
@@ -46288,7 +47059,7 @@
         <v>3213</v>
       </c>
       <c r="F612" t="s">
-        <v>16</v>
+        <v>7080</v>
       </c>
       <c r="G612" t="s">
         <v>3214</v>
@@ -46329,7 +47100,7 @@
         <v>3224</v>
       </c>
       <c r="F613" t="s">
-        <v>16</v>
+        <v>7081</v>
       </c>
       <c r="G613" t="s">
         <v>3225</v>
@@ -46370,7 +47141,7 @@
         <v>3224</v>
       </c>
       <c r="F614" t="s">
-        <v>16</v>
+        <v>7081</v>
       </c>
       <c r="G614" t="s">
         <v>3225</v>
@@ -46493,7 +47264,7 @@
         <v>3247</v>
       </c>
       <c r="F617" t="s">
-        <v>16</v>
+        <v>7082</v>
       </c>
       <c r="G617" t="s">
         <v>3248</v>
@@ -46534,7 +47305,7 @@
         <v>3247</v>
       </c>
       <c r="F618" t="s">
-        <v>16</v>
+        <v>7082</v>
       </c>
       <c r="G618" t="s">
         <v>3248</v>
@@ -46575,7 +47346,7 @@
         <v>16</v>
       </c>
       <c r="F619" t="s">
-        <v>16</v>
+        <v>7083</v>
       </c>
       <c r="G619" t="s">
         <v>16</v>
@@ -46616,7 +47387,7 @@
         <v>16</v>
       </c>
       <c r="F620" t="s">
-        <v>16</v>
+        <v>7083</v>
       </c>
       <c r="G620" t="s">
         <v>16</v>
@@ -46821,7 +47592,7 @@
         <v>16</v>
       </c>
       <c r="F625" t="s">
-        <v>16</v>
+        <v>7084</v>
       </c>
       <c r="G625" t="s">
         <v>16</v>
@@ -46944,7 +47715,7 @@
         <v>16</v>
       </c>
       <c r="F628" t="s">
-        <v>16</v>
+        <v>7085</v>
       </c>
       <c r="G628" t="s">
         <v>16</v>
@@ -47272,7 +48043,7 @@
         <v>16</v>
       </c>
       <c r="F636" t="s">
-        <v>16</v>
+        <v>7086</v>
       </c>
       <c r="G636" t="s">
         <v>16</v>
@@ -47313,7 +48084,7 @@
         <v>16</v>
       </c>
       <c r="F637" t="s">
-        <v>16</v>
+        <v>7086</v>
       </c>
       <c r="G637" t="s">
         <v>16</v>
@@ -47354,7 +48125,7 @@
         <v>16</v>
       </c>
       <c r="F638" t="s">
-        <v>16</v>
+        <v>7087</v>
       </c>
       <c r="G638" t="s">
         <v>16</v>
@@ -47395,7 +48166,7 @@
         <v>3357</v>
       </c>
       <c r="F639" t="s">
-        <v>16</v>
+        <v>7088</v>
       </c>
       <c r="G639" t="s">
         <v>3358</v>
@@ -47436,7 +48207,7 @@
         <v>3357</v>
       </c>
       <c r="F640" t="s">
-        <v>16</v>
+        <v>7088</v>
       </c>
       <c r="G640" t="s">
         <v>3358</v>
@@ -47764,7 +48535,7 @@
         <v>16</v>
       </c>
       <c r="F648" t="s">
-        <v>16</v>
+        <v>7089</v>
       </c>
       <c r="G648" t="s">
         <v>16</v>
@@ -47969,7 +48740,7 @@
         <v>16</v>
       </c>
       <c r="F653" t="s">
-        <v>16</v>
+        <v>7090</v>
       </c>
       <c r="G653" t="s">
         <v>16</v>
@@ -48092,7 +48863,7 @@
         <v>16</v>
       </c>
       <c r="F656" t="s">
-        <v>16</v>
+        <v>7091</v>
       </c>
       <c r="G656" t="s">
         <v>16</v>
@@ -48174,7 +48945,7 @@
         <v>3452</v>
       </c>
       <c r="F658" t="s">
-        <v>16</v>
+        <v>7092</v>
       </c>
       <c r="G658" t="s">
         <v>3453</v>
@@ -48256,7 +49027,7 @@
         <v>16</v>
       </c>
       <c r="F660" t="s">
-        <v>16</v>
+        <v>7093</v>
       </c>
       <c r="G660" t="s">
         <v>16</v>
@@ -48379,7 +49150,7 @@
         <v>3482</v>
       </c>
       <c r="F663" t="s">
-        <v>16</v>
+        <v>7094</v>
       </c>
       <c r="G663" t="s">
         <v>3483</v>
@@ -48502,7 +49273,7 @@
         <v>16</v>
       </c>
       <c r="F666" t="s">
-        <v>16</v>
+        <v>7095</v>
       </c>
       <c r="G666" t="s">
         <v>16</v>
@@ -48543,7 +49314,7 @@
         <v>16</v>
       </c>
       <c r="F667" t="s">
-        <v>16</v>
+        <v>7095</v>
       </c>
       <c r="G667" t="s">
         <v>16</v>
@@ -48871,7 +49642,7 @@
         <v>16</v>
       </c>
       <c r="F675" t="s">
-        <v>16</v>
+        <v>7096</v>
       </c>
       <c r="G675" t="s">
         <v>16</v>
@@ -48912,7 +49683,7 @@
         <v>16</v>
       </c>
       <c r="F676" t="s">
-        <v>16</v>
+        <v>7096</v>
       </c>
       <c r="G676" t="s">
         <v>16</v>
@@ -49158,7 +49929,7 @@
         <v>16</v>
       </c>
       <c r="F682" t="s">
-        <v>16</v>
+        <v>7097</v>
       </c>
       <c r="G682" t="s">
         <v>16</v>
@@ -49199,7 +49970,7 @@
         <v>3589</v>
       </c>
       <c r="F683" t="s">
-        <v>16</v>
+        <v>7098</v>
       </c>
       <c r="G683" t="s">
         <v>3590</v>
@@ -49527,7 +50298,7 @@
         <v>16</v>
       </c>
       <c r="F691" t="s">
-        <v>16</v>
+        <v>7099</v>
       </c>
       <c r="G691" t="s">
         <v>16</v>
@@ -49568,7 +50339,7 @@
         <v>16</v>
       </c>
       <c r="F692" t="s">
-        <v>16</v>
+        <v>7099</v>
       </c>
       <c r="G692" t="s">
         <v>16</v>
@@ -49650,7 +50421,7 @@
         <v>3641</v>
       </c>
       <c r="F694" t="s">
-        <v>16</v>
+        <v>7100</v>
       </c>
       <c r="G694" t="s">
         <v>3642</v>
@@ -49691,7 +50462,7 @@
         <v>3641</v>
       </c>
       <c r="F695" t="s">
-        <v>16</v>
+        <v>7100</v>
       </c>
       <c r="G695" t="s">
         <v>3642</v>
@@ -49814,7 +50585,7 @@
         <v>16</v>
       </c>
       <c r="F698" t="s">
-        <v>16</v>
+        <v>7101</v>
       </c>
       <c r="G698" t="s">
         <v>16</v>
@@ -49855,7 +50626,7 @@
         <v>16</v>
       </c>
       <c r="F699" t="s">
-        <v>16</v>
+        <v>7101</v>
       </c>
       <c r="G699" t="s">
         <v>16</v>
@@ -49978,7 +50749,7 @@
         <v>3684</v>
       </c>
       <c r="F702" t="s">
-        <v>16</v>
+        <v>7102</v>
       </c>
       <c r="G702" t="s">
         <v>3685</v>
@@ -50101,7 +50872,7 @@
         <v>16</v>
       </c>
       <c r="F705" t="s">
-        <v>16</v>
+        <v>7103</v>
       </c>
       <c r="G705" t="s">
         <v>16</v>
@@ -50224,7 +50995,7 @@
         <v>16</v>
       </c>
       <c r="F708" t="s">
-        <v>16</v>
+        <v>7104</v>
       </c>
       <c r="G708" t="s">
         <v>16</v>
@@ -50306,7 +51077,7 @@
         <v>16</v>
       </c>
       <c r="F710" t="s">
-        <v>16</v>
+        <v>7105</v>
       </c>
       <c r="G710" t="s">
         <v>16</v>
@@ -50347,7 +51118,7 @@
         <v>16</v>
       </c>
       <c r="F711" t="s">
-        <v>16</v>
+        <v>7106</v>
       </c>
       <c r="G711" t="s">
         <v>16</v>
@@ -50511,7 +51282,7 @@
         <v>16</v>
       </c>
       <c r="F715" t="s">
-        <v>16</v>
+        <v>7107</v>
       </c>
       <c r="G715" t="s">
         <v>16</v>
@@ -50552,7 +51323,7 @@
         <v>16</v>
       </c>
       <c r="F716" t="s">
-        <v>16</v>
+        <v>7107</v>
       </c>
       <c r="G716" t="s">
         <v>16</v>
@@ -51331,7 +52102,7 @@
         <v>16</v>
       </c>
       <c r="F735" t="s">
-        <v>16</v>
+        <v>7108</v>
       </c>
       <c r="G735" t="s">
         <v>16</v>
@@ -51659,7 +52430,7 @@
         <v>3898</v>
       </c>
       <c r="F743" t="s">
-        <v>16</v>
+        <v>7109</v>
       </c>
       <c r="G743" t="s">
         <v>3899</v>
@@ -51700,7 +52471,7 @@
         <v>3898</v>
       </c>
       <c r="F744" t="s">
-        <v>16</v>
+        <v>7109</v>
       </c>
       <c r="G744" t="s">
         <v>3899</v>
@@ -51741,7 +52512,7 @@
         <v>3909</v>
       </c>
       <c r="F745" t="s">
-        <v>16</v>
+        <v>7110</v>
       </c>
       <c r="G745" t="s">
         <v>3910</v>
@@ -51987,7 +52758,7 @@
         <v>16</v>
       </c>
       <c r="F751" t="s">
-        <v>16</v>
+        <v>7111</v>
       </c>
       <c r="G751" t="s">
         <v>16</v>
@@ -52069,7 +52840,7 @@
         <v>16</v>
       </c>
       <c r="F753" t="s">
-        <v>16</v>
+        <v>7112</v>
       </c>
       <c r="G753" t="s">
         <v>16</v>
@@ -52602,7 +53373,7 @@
         <v>16</v>
       </c>
       <c r="F766" t="s">
-        <v>16</v>
+        <v>7113</v>
       </c>
       <c r="G766" t="s">
         <v>16</v>
@@ -52643,7 +53414,7 @@
         <v>16</v>
       </c>
       <c r="F767" t="s">
-        <v>16</v>
+        <v>7113</v>
       </c>
       <c r="G767" t="s">
         <v>16</v>
@@ -52848,7 +53619,7 @@
         <v>16</v>
       </c>
       <c r="F772" t="s">
-        <v>16</v>
+        <v>7114</v>
       </c>
       <c r="G772" t="s">
         <v>16</v>
@@ -52889,7 +53660,7 @@
         <v>4052</v>
       </c>
       <c r="F773" t="s">
-        <v>16</v>
+        <v>7115</v>
       </c>
       <c r="G773" t="s">
         <v>4053</v>
@@ -53422,7 +54193,7 @@
         <v>16</v>
       </c>
       <c r="F786" t="s">
-        <v>16</v>
+        <v>7116</v>
       </c>
       <c r="G786" t="s">
         <v>16</v>
@@ -53463,7 +54234,7 @@
         <v>16</v>
       </c>
       <c r="F787" t="s">
-        <v>16</v>
+        <v>7116</v>
       </c>
       <c r="G787" t="s">
         <v>16</v>
@@ -53709,7 +54480,7 @@
         <v>16</v>
       </c>
       <c r="F793" t="s">
-        <v>16</v>
+        <v>7117</v>
       </c>
       <c r="G793" t="s">
         <v>16</v>
@@ -53750,7 +54521,7 @@
         <v>16</v>
       </c>
       <c r="F794" t="s">
-        <v>16</v>
+        <v>7118</v>
       </c>
       <c r="G794" t="s">
         <v>16</v>
@@ -54078,7 +54849,7 @@
         <v>4214</v>
       </c>
       <c r="F802" t="s">
-        <v>16</v>
+        <v>7119</v>
       </c>
       <c r="G802" t="s">
         <v>4215</v>
@@ -54488,7 +55259,7 @@
         <v>4270</v>
       </c>
       <c r="F812" t="s">
-        <v>16</v>
+        <v>7120</v>
       </c>
       <c r="G812" t="s">
         <v>4271</v>
@@ -54652,7 +55423,7 @@
         <v>16</v>
       </c>
       <c r="F816" t="s">
-        <v>16</v>
+        <v>7121</v>
       </c>
       <c r="G816" t="s">
         <v>16</v>
@@ -54734,7 +55505,7 @@
         <v>4306</v>
       </c>
       <c r="F818" t="s">
-        <v>16</v>
+        <v>7122</v>
       </c>
       <c r="G818" t="s">
         <v>4307</v>
@@ -55185,7 +55956,7 @@
         <v>4367</v>
       </c>
       <c r="F829" t="s">
-        <v>16</v>
+        <v>7123</v>
       </c>
       <c r="G829" t="s">
         <v>4368</v>
@@ -55308,7 +56079,7 @@
         <v>16</v>
       </c>
       <c r="F832" t="s">
-        <v>16</v>
+        <v>7124</v>
       </c>
       <c r="G832" t="s">
         <v>16</v>
@@ -55595,7 +56366,7 @@
         <v>16</v>
       </c>
       <c r="F839" t="s">
-        <v>16</v>
+        <v>7125</v>
       </c>
       <c r="G839" t="s">
         <v>16</v>
@@ -55718,7 +56489,7 @@
         <v>16</v>
       </c>
       <c r="F842" t="s">
-        <v>16</v>
+        <v>7126</v>
       </c>
       <c r="G842" t="s">
         <v>16</v>
@@ -56292,7 +57063,7 @@
         <v>16</v>
       </c>
       <c r="F856" t="s">
-        <v>16</v>
+        <v>7127</v>
       </c>
       <c r="G856" t="s">
         <v>16</v>
@@ -56333,7 +57104,7 @@
         <v>16</v>
       </c>
       <c r="F857" t="s">
-        <v>16</v>
+        <v>7127</v>
       </c>
       <c r="G857" t="s">
         <v>16</v>
@@ -56415,7 +57186,7 @@
         <v>4521</v>
       </c>
       <c r="F859" t="s">
-        <v>16</v>
+        <v>7128</v>
       </c>
       <c r="G859" t="s">
         <v>4522</v>
@@ -56456,7 +57227,7 @@
         <v>4521</v>
       </c>
       <c r="F860" t="s">
-        <v>16</v>
+        <v>7128</v>
       </c>
       <c r="G860" t="s">
         <v>4522</v>
@@ -56784,7 +57555,7 @@
         <v>16</v>
       </c>
       <c r="F868" t="s">
-        <v>16</v>
+        <v>7129</v>
       </c>
       <c r="G868" t="s">
         <v>16</v>
@@ -56825,7 +57596,7 @@
         <v>16</v>
       </c>
       <c r="F869" t="s">
-        <v>16</v>
+        <v>7129</v>
       </c>
       <c r="G869" t="s">
         <v>16</v>
@@ -57030,7 +57801,7 @@
         <v>4599</v>
       </c>
       <c r="F874" t="s">
-        <v>16</v>
+        <v>7130</v>
       </c>
       <c r="G874" t="s">
         <v>4600</v>
@@ -57071,7 +57842,7 @@
         <v>4599</v>
       </c>
       <c r="F875" t="s">
-        <v>16</v>
+        <v>7130</v>
       </c>
       <c r="G875" t="s">
         <v>4600</v>
@@ -57153,7 +57924,7 @@
         <v>4615</v>
       </c>
       <c r="F877" t="s">
-        <v>16</v>
+        <v>7131</v>
       </c>
       <c r="G877" t="s">
         <v>4616</v>
@@ -57440,7 +58211,7 @@
         <v>4650</v>
       </c>
       <c r="F884" t="s">
-        <v>16</v>
+        <v>7132</v>
       </c>
       <c r="G884" t="s">
         <v>4651</v>
@@ -57481,7 +58252,7 @@
         <v>4650</v>
       </c>
       <c r="F885" t="s">
-        <v>16</v>
+        <v>7132</v>
       </c>
       <c r="G885" t="s">
         <v>4651</v>
@@ -57563,7 +58334,7 @@
         <v>4667</v>
       </c>
       <c r="F887" t="s">
-        <v>16</v>
+        <v>7133</v>
       </c>
       <c r="G887" t="s">
         <v>4668</v>
@@ -57604,7 +58375,7 @@
         <v>4667</v>
       </c>
       <c r="F888" t="s">
-        <v>16</v>
+        <v>7133</v>
       </c>
       <c r="G888" t="s">
         <v>4668</v>
@@ -57850,7 +58621,7 @@
         <v>16</v>
       </c>
       <c r="F894" t="s">
-        <v>16</v>
+        <v>7134</v>
       </c>
       <c r="G894" t="s">
         <v>4704</v>
@@ -57973,7 +58744,7 @@
         <v>16</v>
       </c>
       <c r="F897" t="s">
-        <v>16</v>
+        <v>7135</v>
       </c>
       <c r="G897" t="s">
         <v>16</v>
@@ -58137,7 +58908,7 @@
         <v>16</v>
       </c>
       <c r="F901" t="s">
-        <v>16</v>
+        <v>7136</v>
       </c>
       <c r="G901" t="s">
         <v>16</v>
@@ -58219,7 +58990,7 @@
         <v>16</v>
       </c>
       <c r="F903" t="s">
-        <v>16</v>
+        <v>7137</v>
       </c>
       <c r="G903" t="s">
         <v>4756</v>
@@ -58260,7 +59031,7 @@
         <v>16</v>
       </c>
       <c r="F904" t="s">
-        <v>16</v>
+        <v>7137</v>
       </c>
       <c r="G904" t="s">
         <v>4756</v>
@@ -58916,7 +59687,7 @@
         <v>16</v>
       </c>
       <c r="F920" t="s">
-        <v>16</v>
+        <v>7138</v>
       </c>
       <c r="G920" t="s">
         <v>16</v>
@@ -59203,7 +59974,7 @@
         <v>16</v>
       </c>
       <c r="F927" t="s">
-        <v>16</v>
+        <v>7139</v>
       </c>
       <c r="G927" t="s">
         <v>4877</v>
@@ -59408,7 +60179,7 @@
         <v>4905</v>
       </c>
       <c r="F932" t="s">
-        <v>16</v>
+        <v>7140</v>
       </c>
       <c r="G932" t="s">
         <v>4906</v>
@@ -59695,7 +60466,7 @@
         <v>4944</v>
       </c>
       <c r="F939" t="s">
-        <v>16</v>
+        <v>7141</v>
       </c>
       <c r="G939" t="s">
         <v>4945</v>
@@ -59777,7 +60548,7 @@
         <v>4956</v>
       </c>
       <c r="F941" t="s">
-        <v>16</v>
+        <v>7142</v>
       </c>
       <c r="G941" t="s">
         <v>4957</v>
@@ -59982,7 +60753,7 @@
         <v>16</v>
       </c>
       <c r="F946" t="s">
-        <v>16</v>
+        <v>7143</v>
       </c>
       <c r="G946" t="s">
         <v>16</v>
@@ -60105,7 +60876,7 @@
         <v>4999</v>
       </c>
       <c r="F949" t="s">
-        <v>16</v>
+        <v>7144</v>
       </c>
       <c r="G949" t="s">
         <v>5000</v>
@@ -60228,7 +60999,7 @@
         <v>16</v>
       </c>
       <c r="F952" t="s">
-        <v>16</v>
+        <v>7145</v>
       </c>
       <c r="G952" t="s">
         <v>16</v>
@@ -60310,7 +61081,7 @@
         <v>16</v>
       </c>
       <c r="F954" t="s">
-        <v>16</v>
+        <v>7146</v>
       </c>
       <c r="G954" t="s">
         <v>16</v>
@@ -60433,7 +61204,7 @@
         <v>16</v>
       </c>
       <c r="F957" t="s">
-        <v>16</v>
+        <v>7147</v>
       </c>
       <c r="G957" t="s">
         <v>16</v>
@@ -60802,7 +61573,7 @@
         <v>5091</v>
       </c>
       <c r="F966" t="s">
-        <v>16</v>
+        <v>7148</v>
       </c>
       <c r="G966" t="s">
         <v>5092</v>
@@ -60843,7 +61614,7 @@
         <v>5091</v>
       </c>
       <c r="F967" t="s">
-        <v>16</v>
+        <v>7148</v>
       </c>
       <c r="G967" t="s">
         <v>5092</v>
@@ -60966,7 +61737,7 @@
         <v>5111</v>
       </c>
       <c r="F970" t="s">
-        <v>16</v>
+        <v>7149</v>
       </c>
       <c r="G970" t="s">
         <v>5112</v>
@@ -61007,7 +61778,7 @@
         <v>5111</v>
       </c>
       <c r="F971" t="s">
-        <v>16</v>
+        <v>7149</v>
       </c>
       <c r="G971" t="s">
         <v>5112</v>
@@ -61745,7 +62516,7 @@
         <v>16</v>
       </c>
       <c r="F989" t="s">
-        <v>16</v>
+        <v>7150</v>
       </c>
       <c r="G989" t="s">
         <v>16</v>
@@ -62155,7 +62926,7 @@
         <v>5259</v>
       </c>
       <c r="F999" t="s">
-        <v>16</v>
+        <v>7151</v>
       </c>
       <c r="G999" t="s">
         <v>5260</v>
@@ -62196,7 +62967,7 @@
         <v>5259</v>
       </c>
       <c r="F1000" t="s">
-        <v>16</v>
+        <v>7151</v>
       </c>
       <c r="G1000" t="s">
         <v>5260</v>
@@ -62319,7 +63090,7 @@
         <v>5282</v>
       </c>
       <c r="F1003" t="s">
-        <v>16</v>
+        <v>7152</v>
       </c>
       <c r="G1003" t="s">
         <v>5283</v>
@@ -62401,7 +63172,7 @@
         <v>16</v>
       </c>
       <c r="F1005" t="s">
-        <v>16</v>
+        <v>7153</v>
       </c>
       <c r="G1005" t="s">
         <v>16</v>
@@ -62442,7 +63213,7 @@
         <v>16</v>
       </c>
       <c r="F1006" t="s">
-        <v>16</v>
+        <v>7154</v>
       </c>
       <c r="G1006" t="s">
         <v>16</v>
@@ -62483,7 +63254,7 @@
         <v>16</v>
       </c>
       <c r="F1007" t="s">
-        <v>16</v>
+        <v>7154</v>
       </c>
       <c r="G1007" t="s">
         <v>16</v>
@@ -62688,7 +63459,7 @@
         <v>16</v>
       </c>
       <c r="F1012" t="s">
-        <v>16</v>
+        <v>7155</v>
       </c>
       <c r="G1012" t="s">
         <v>16</v>
@@ -62770,7 +63541,7 @@
         <v>16</v>
       </c>
       <c r="F1014" t="s">
-        <v>16</v>
+        <v>7156</v>
       </c>
       <c r="G1014" t="s">
         <v>16</v>
@@ -62852,7 +63623,7 @@
         <v>16</v>
       </c>
       <c r="F1016" t="s">
-        <v>16</v>
+        <v>7157</v>
       </c>
       <c r="G1016" t="s">
         <v>16</v>
@@ -62975,7 +63746,7 @@
         <v>5366</v>
       </c>
       <c r="F1019" t="s">
-        <v>16</v>
+        <v>7158</v>
       </c>
       <c r="G1019" t="s">
         <v>5367</v>
@@ -63016,7 +63787,7 @@
         <v>5366</v>
       </c>
       <c r="F1020" t="s">
-        <v>16</v>
+        <v>7158</v>
       </c>
       <c r="G1020" t="s">
         <v>5367</v>
@@ -63180,7 +63951,7 @@
         <v>16</v>
       </c>
       <c r="F1024" t="s">
-        <v>16</v>
+        <v>7159</v>
       </c>
       <c r="G1024" t="s">
         <v>5394</v>
@@ -63221,7 +63992,7 @@
         <v>16</v>
       </c>
       <c r="F1025" t="s">
-        <v>16</v>
+        <v>7159</v>
       </c>
       <c r="G1025" t="s">
         <v>5394</v>
@@ -63262,7 +64033,7 @@
         <v>16</v>
       </c>
       <c r="F1026" t="s">
-        <v>16</v>
+        <v>7160</v>
       </c>
       <c r="G1026" t="s">
         <v>16</v>
@@ -63590,7 +64361,7 @@
         <v>16</v>
       </c>
       <c r="F1034" t="s">
-        <v>16</v>
+        <v>7161</v>
       </c>
       <c r="G1034" t="s">
         <v>16</v>
@@ -63631,7 +64402,7 @@
         <v>16</v>
       </c>
       <c r="F1035" t="s">
-        <v>16</v>
+        <v>7161</v>
       </c>
       <c r="G1035" t="s">
         <v>16</v>
@@ -63959,7 +64730,7 @@
         <v>5489</v>
       </c>
       <c r="F1043" t="s">
-        <v>16</v>
+        <v>7162</v>
       </c>
       <c r="G1043" t="s">
         <v>5490</v>
@@ -64000,7 +64771,7 @@
         <v>5489</v>
       </c>
       <c r="F1044" t="s">
-        <v>16</v>
+        <v>7162</v>
       </c>
       <c r="G1044" t="s">
         <v>5490</v>
@@ -64246,7 +65017,7 @@
         <v>16</v>
       </c>
       <c r="F1050" t="s">
-        <v>16</v>
+        <v>7163</v>
       </c>
       <c r="G1050" t="s">
         <v>16</v>
@@ -64287,7 +65058,7 @@
         <v>16</v>
       </c>
       <c r="F1051" t="s">
-        <v>16</v>
+        <v>7163</v>
       </c>
       <c r="G1051" t="s">
         <v>16</v>
@@ -64656,7 +65427,7 @@
         <v>5575</v>
       </c>
       <c r="F1060" t="s">
-        <v>16</v>
+        <v>7164</v>
       </c>
       <c r="G1060" t="s">
         <v>5576</v>
@@ -64697,7 +65468,7 @@
         <v>5575</v>
       </c>
       <c r="F1061" t="s">
-        <v>16</v>
+        <v>7164</v>
       </c>
       <c r="G1061" t="s">
         <v>5576</v>
@@ -64779,7 +65550,7 @@
         <v>16</v>
       </c>
       <c r="F1063" t="s">
-        <v>16</v>
+        <v>7165</v>
       </c>
       <c r="G1063" t="s">
         <v>16</v>
@@ -64820,7 +65591,7 @@
         <v>16</v>
       </c>
       <c r="F1064" t="s">
-        <v>16</v>
+        <v>7166</v>
       </c>
       <c r="G1064" t="s">
         <v>16</v>
@@ -65025,7 +65796,7 @@
         <v>16</v>
       </c>
       <c r="F1069" t="s">
-        <v>16</v>
+        <v>7167</v>
       </c>
       <c r="G1069" t="s">
         <v>5624</v>
@@ -65066,7 +65837,7 @@
         <v>16</v>
       </c>
       <c r="F1070" t="s">
-        <v>16</v>
+        <v>7167</v>
       </c>
       <c r="G1070" t="s">
         <v>5624</v>
@@ -65189,7 +65960,7 @@
         <v>5644</v>
       </c>
       <c r="F1073" t="s">
-        <v>16</v>
+        <v>7168</v>
       </c>
       <c r="G1073" t="s">
         <v>5645</v>
@@ -65599,7 +66370,7 @@
         <v>5690</v>
       </c>
       <c r="F1083" t="s">
-        <v>16</v>
+        <v>7169</v>
       </c>
       <c r="G1083" t="s">
         <v>5691</v>
@@ -65640,7 +66411,7 @@
         <v>5690</v>
       </c>
       <c r="F1084" t="s">
-        <v>16</v>
+        <v>7169</v>
       </c>
       <c r="G1084" t="s">
         <v>5691</v>
@@ -65845,7 +66616,7 @@
         <v>16</v>
       </c>
       <c r="F1089" t="s">
-        <v>16</v>
+        <v>7170</v>
       </c>
       <c r="G1089" t="s">
         <v>5721</v>
@@ -65886,7 +66657,7 @@
         <v>16</v>
       </c>
       <c r="F1090" t="s">
-        <v>16</v>
+        <v>7170</v>
       </c>
       <c r="G1090" t="s">
         <v>5721</v>
@@ -66296,7 +67067,7 @@
         <v>16</v>
       </c>
       <c r="F1100" t="s">
-        <v>16</v>
+        <v>7171</v>
       </c>
       <c r="G1100" t="s">
         <v>16</v>
@@ -66378,7 +67149,7 @@
         <v>16</v>
       </c>
       <c r="F1102" t="s">
-        <v>16</v>
+        <v>7172</v>
       </c>
       <c r="G1102" t="s">
         <v>16</v>
@@ -66419,7 +67190,7 @@
         <v>5793</v>
       </c>
       <c r="F1103" t="s">
-        <v>16</v>
+        <v>7173</v>
       </c>
       <c r="G1103" t="s">
         <v>5794</v>
@@ -66706,7 +67477,7 @@
         <v>5831</v>
       </c>
       <c r="F1110" t="s">
-        <v>16</v>
+        <v>7174</v>
       </c>
       <c r="G1110" t="s">
         <v>5832</v>
@@ -66747,7 +67518,7 @@
         <v>16</v>
       </c>
       <c r="F1111" t="s">
-        <v>16</v>
+        <v>7175</v>
       </c>
       <c r="G1111" t="s">
         <v>16</v>
@@ -66788,7 +67559,7 @@
         <v>16</v>
       </c>
       <c r="F1112" t="s">
-        <v>16</v>
+        <v>7175</v>
       </c>
       <c r="G1112" t="s">
         <v>16</v>
@@ -66829,7 +67600,7 @@
         <v>5847</v>
       </c>
       <c r="F1113" t="s">
-        <v>16</v>
+        <v>7176</v>
       </c>
       <c r="G1113" t="s">
         <v>5848</v>
@@ -66870,7 +67641,7 @@
         <v>5847</v>
       </c>
       <c r="F1114" t="s">
-        <v>16</v>
+        <v>7176</v>
       </c>
       <c r="G1114" t="s">
         <v>5848</v>
@@ -67116,7 +67887,7 @@
         <v>5883</v>
       </c>
       <c r="F1120" t="s">
-        <v>16</v>
+        <v>7177</v>
       </c>
       <c r="G1120" t="s">
         <v>5884</v>
@@ -67157,7 +67928,7 @@
         <v>5883</v>
       </c>
       <c r="F1121" t="s">
-        <v>16</v>
+        <v>7177</v>
       </c>
       <c r="G1121" t="s">
         <v>5884</v>
@@ -67280,7 +68051,7 @@
         <v>5906</v>
       </c>
       <c r="F1124" t="s">
-        <v>16</v>
+        <v>7178</v>
       </c>
       <c r="G1124" t="s">
         <v>5907</v>
@@ -67321,7 +68092,7 @@
         <v>5914</v>
       </c>
       <c r="F1125" t="s">
-        <v>16</v>
+        <v>7179</v>
       </c>
       <c r="G1125" t="s">
         <v>5915</v>
@@ -67362,7 +68133,7 @@
         <v>16</v>
       </c>
       <c r="F1126" t="s">
-        <v>16</v>
+        <v>7180</v>
       </c>
       <c r="G1126" t="s">
         <v>16</v>
@@ -67403,7 +68174,7 @@
         <v>16</v>
       </c>
       <c r="F1127" t="s">
-        <v>16</v>
+        <v>7180</v>
       </c>
       <c r="G1127" t="s">
         <v>16</v>
@@ -67649,7 +68420,7 @@
         <v>5957</v>
       </c>
       <c r="F1133" t="s">
-        <v>16</v>
+        <v>7181</v>
       </c>
       <c r="G1133" t="s">
         <v>5958</v>
@@ -67690,7 +68461,7 @@
         <v>5957</v>
       </c>
       <c r="F1134" t="s">
-        <v>16</v>
+        <v>7181</v>
       </c>
       <c r="G1134" t="s">
         <v>5958</v>
@@ -67977,7 +68748,7 @@
         <v>5998</v>
       </c>
       <c r="F1141" t="s">
-        <v>16</v>
+        <v>7182</v>
       </c>
       <c r="G1141" t="s">
         <v>5999</v>
@@ -68018,7 +68789,7 @@
         <v>5998</v>
       </c>
       <c r="F1142" t="s">
-        <v>16</v>
+        <v>7182</v>
       </c>
       <c r="G1142" t="s">
         <v>5999</v>
@@ -68059,7 +68830,7 @@
         <v>6008</v>
       </c>
       <c r="F1143" t="s">
-        <v>16</v>
+        <v>7183</v>
       </c>
       <c r="G1143" t="s">
         <v>6009</v>
@@ -68100,7 +68871,7 @@
         <v>6008</v>
       </c>
       <c r="F1144" t="s">
-        <v>16</v>
+        <v>7183</v>
       </c>
       <c r="G1144" t="s">
         <v>6009</v>
@@ -68182,7 +68953,7 @@
         <v>16</v>
       </c>
       <c r="F1146" t="s">
-        <v>16</v>
+        <v>7184</v>
       </c>
       <c r="G1146" t="s">
         <v>16</v>
@@ -68469,7 +69240,7 @@
         <v>16</v>
       </c>
       <c r="F1153" t="s">
-        <v>16</v>
+        <v>7185</v>
       </c>
       <c r="G1153" t="s">
         <v>16</v>
@@ -68510,7 +69281,7 @@
         <v>16</v>
       </c>
       <c r="F1154" t="s">
-        <v>16</v>
+        <v>7185</v>
       </c>
       <c r="G1154" t="s">
         <v>16</v>
@@ -68674,7 +69445,7 @@
         <v>16</v>
       </c>
       <c r="F1158" t="s">
-        <v>16</v>
+        <v>7186</v>
       </c>
       <c r="G1158" t="s">
         <v>16</v>
@@ -68797,7 +69568,7 @@
         <v>6101</v>
       </c>
       <c r="F1161" t="s">
-        <v>16</v>
+        <v>7187</v>
       </c>
       <c r="G1161" t="s">
         <v>6102</v>
@@ -68961,7 +69732,7 @@
         <v>6123</v>
       </c>
       <c r="F1165" t="s">
-        <v>16</v>
+        <v>7188</v>
       </c>
       <c r="G1165" t="s">
         <v>6124</v>
@@ -69494,7 +70265,7 @@
         <v>16</v>
       </c>
       <c r="F1178" t="s">
-        <v>16</v>
+        <v>7189</v>
       </c>
       <c r="G1178" t="s">
         <v>16</v>
@@ -69658,7 +70429,7 @@
         <v>16</v>
       </c>
       <c r="F1182" t="s">
-        <v>16</v>
+        <v>7190</v>
       </c>
       <c r="G1182" t="s">
         <v>6211</v>
@@ -69699,7 +70470,7 @@
         <v>16</v>
       </c>
       <c r="F1183" t="s">
-        <v>16</v>
+        <v>7190</v>
       </c>
       <c r="G1183" t="s">
         <v>6211</v>
@@ -70109,7 +70880,7 @@
         <v>16</v>
       </c>
       <c r="F1193" t="s">
-        <v>16</v>
+        <v>7191</v>
       </c>
       <c r="G1193" t="s">
         <v>16</v>
@@ -70519,7 +71290,7 @@
         <v>16</v>
       </c>
       <c r="F1203" t="s">
-        <v>16</v>
+        <v>7192</v>
       </c>
       <c r="G1203" t="s">
         <v>16</v>
@@ -70929,7 +71700,7 @@
         <v>16</v>
       </c>
       <c r="F1213" t="s">
-        <v>16</v>
+        <v>7193</v>
       </c>
       <c r="G1213" t="s">
         <v>6373</v>
@@ -71052,7 +71823,7 @@
         <v>6391</v>
       </c>
       <c r="F1216" t="s">
-        <v>16</v>
+        <v>7194</v>
       </c>
       <c r="G1216" t="s">
         <v>6392</v>
@@ -71093,7 +71864,7 @@
         <v>16</v>
       </c>
       <c r="F1217" t="s">
-        <v>16</v>
+        <v>7195</v>
       </c>
       <c r="G1217" t="s">
         <v>16</v>
@@ -71216,7 +71987,7 @@
         <v>16</v>
       </c>
       <c r="F1220" t="s">
-        <v>16</v>
+        <v>7196</v>
       </c>
       <c r="G1220" t="s">
         <v>16</v>
@@ -71257,7 +72028,7 @@
         <v>16</v>
       </c>
       <c r="F1221" t="s">
-        <v>16</v>
+        <v>7196</v>
       </c>
       <c r="G1221" t="s">
         <v>16</v>
@@ -71503,7 +72274,7 @@
         <v>16</v>
       </c>
       <c r="F1227" t="s">
-        <v>16</v>
+        <v>7197</v>
       </c>
       <c r="G1227" t="s">
         <v>16</v>
@@ -71585,7 +72356,7 @@
         <v>16</v>
       </c>
       <c r="F1229" t="s">
-        <v>16</v>
+        <v>7197</v>
       </c>
       <c r="G1229" t="s">
         <v>16</v>
@@ -71667,7 +72438,7 @@
         <v>16</v>
       </c>
       <c r="F1231" t="s">
-        <v>16</v>
+        <v>7198</v>
       </c>
       <c r="G1231" t="s">
         <v>16</v>
@@ -71831,7 +72602,7 @@
         <v>16</v>
       </c>
       <c r="F1235" t="s">
-        <v>16</v>
+        <v>7199</v>
       </c>
       <c r="G1235" t="s">
         <v>16</v>
@@ -71954,7 +72725,7 @@
         <v>16</v>
       </c>
       <c r="F1238" t="s">
-        <v>16</v>
+        <v>7200</v>
       </c>
       <c r="G1238" t="s">
         <v>16</v>
@@ -72036,7 +72807,7 @@
         <v>16</v>
       </c>
       <c r="F1240" t="s">
-        <v>16</v>
+        <v>7201</v>
       </c>
       <c r="G1240" t="s">
         <v>16</v>
@@ -72077,7 +72848,7 @@
         <v>6527</v>
       </c>
       <c r="F1241" t="s">
-        <v>16</v>
+        <v>7202</v>
       </c>
       <c r="G1241" t="s">
         <v>6528</v>
@@ -72159,7 +72930,7 @@
         <v>6540</v>
       </c>
       <c r="F1243" t="s">
-        <v>16</v>
+        <v>7203</v>
       </c>
       <c r="G1243" t="s">
         <v>6541</v>
@@ -72200,7 +72971,7 @@
         <v>6540</v>
       </c>
       <c r="F1244" t="s">
-        <v>16</v>
+        <v>7203</v>
       </c>
       <c r="G1244" t="s">
         <v>6541</v>
@@ -72405,7 +73176,7 @@
         <v>16</v>
       </c>
       <c r="F1249" t="s">
-        <v>16</v>
+        <v>7204</v>
       </c>
       <c r="G1249" t="s">
         <v>16</v>
@@ -73184,7 +73955,7 @@
         <v>16</v>
       </c>
       <c r="F1268" t="s">
-        <v>16</v>
+        <v>7205</v>
       </c>
       <c r="G1268" t="s">
         <v>16</v>
@@ -73225,7 +73996,7 @@
         <v>16</v>
       </c>
       <c r="F1269" t="s">
-        <v>16</v>
+        <v>7206</v>
       </c>
       <c r="G1269" t="s">
         <v>16</v>
@@ -73266,7 +74037,7 @@
         <v>16</v>
       </c>
       <c r="F1270" t="s">
-        <v>16</v>
+        <v>7207</v>
       </c>
       <c r="G1270" t="s">
         <v>16</v>
@@ -73307,7 +74078,7 @@
         <v>16</v>
       </c>
       <c r="F1271" t="s">
-        <v>16</v>
+        <v>7207</v>
       </c>
       <c r="G1271" t="s">
         <v>16</v>
@@ -73430,7 +74201,7 @@
         <v>6700</v>
       </c>
       <c r="F1274" t="s">
-        <v>16</v>
+        <v>7208</v>
       </c>
       <c r="G1274" t="s">
         <v>6701</v>
@@ -73922,7 +74693,7 @@
         <v>16</v>
       </c>
       <c r="F1286" t="s">
-        <v>16</v>
+        <v>7209</v>
       </c>
       <c r="G1286" t="s">
         <v>6768</v>
@@ -73963,7 +74734,7 @@
         <v>16</v>
       </c>
       <c r="F1287" t="s">
-        <v>16</v>
+        <v>7209</v>
       </c>
       <c r="G1287" t="s">
         <v>6768</v>
